--- a/模板表格.xlsx
+++ b/模板表格.xlsx
@@ -54,7 +54,7 @@
     <t>填表专家姓名：</t>
   </si>
   <si>
-    <t>白宗</t>
+    <t>莱幂</t>
   </si>
   <si>
     <t>expert</t>
@@ -63,7 +63,7 @@
     <t>患者姓名：</t>
   </si>
   <si>
-    <t>啊敏</t>
+    <t>奥莉</t>
   </si>
   <si>
     <t>name</t>
@@ -72,7 +72,7 @@
     <t>电话：</t>
   </si>
   <si>
-    <t>13367845788</t>
+    <t>12262845788</t>
   </si>
   <si>
     <t>telephone</t>
@@ -108,7 +108,7 @@
     <t>4.血型</t>
   </si>
   <si>
-    <t>AB</t>
+    <t>A</t>
   </si>
   <si>
     <t>blood_type</t>
@@ -117,7 +117,7 @@
     <t xml:space="preserve">3.民族： </t>
   </si>
   <si>
-    <t>汉族</t>
+    <t>崩龙族</t>
   </si>
   <si>
     <t>nation</t>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">5.职业       </t>
   </si>
   <si>
-    <t xml:space="preserve"> 技术人员  </t>
+    <t xml:space="preserve"> 无业  </t>
   </si>
   <si>
     <t>career</t>
@@ -2582,15 +2582,15 @@
     <t>血型</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
     <t>职业：</t>
   </si>
   <si>
@@ -2612,6 +2612,9 @@
     <t xml:space="preserve"> 财会人员  </t>
   </si>
   <si>
+    <t xml:space="preserve"> 技术人员  </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 服务业  </t>
   </si>
   <si>
@@ -2621,9 +2624,6 @@
     <t xml:space="preserve"> 行政管理  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 无业  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 其它</t>
   </si>
   <si>
@@ -2840,6 +2840,9 @@
     <t>民族</t>
   </si>
   <si>
+    <t>汉族</t>
+  </si>
+  <si>
     <t>蒙族</t>
   </si>
   <si>
@@ -2970,9 +2973,6 @@
   </si>
   <si>
     <t>鄂温克族</t>
-  </si>
-  <si>
-    <t>崩龙族</t>
   </si>
   <si>
     <t>保安族</t>
@@ -3010,14 +3010,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3084,12 +3084,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3188,37 +3182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3232,6 +3196,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -3240,7 +3227,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3269,9 +3272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3279,7 +3281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3293,7 +3295,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -3308,14 +3310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
@@ -3323,22 +3317,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3383,6 +3377,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3401,7 +3479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3413,7 +3515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3425,139 +3527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3600,19 +3570,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3637,7 +3615,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3652,21 +3639,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3689,159 +3661,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3860,40 +3830,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3901,89 +3871,89 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -3994,23 +3964,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5942,7 +5912,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -5964,7 +5934,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="11369040"/>
-              <a:ext cx="889000" cy="187960"/>
+              <a:ext cx="889000" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6011,7 +5981,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -6033,7 +6003,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="11551920"/>
-              <a:ext cx="1117600" cy="175260"/>
+              <a:ext cx="1117600" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6908,7 +6878,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -6930,7 +6900,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="14340840"/>
-              <a:ext cx="901700" cy="187960"/>
+              <a:ext cx="901700" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6977,7 +6947,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -6999,7 +6969,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="14523720"/>
-              <a:ext cx="1371600" cy="187960"/>
+              <a:ext cx="1371600" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7046,7 +7016,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -7068,7 +7038,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="14706600"/>
-              <a:ext cx="1320800" cy="187960"/>
+              <a:ext cx="1320800" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7322,7 +7292,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -7344,7 +7314,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="15636240"/>
-              <a:ext cx="952500" cy="190500"/>
+              <a:ext cx="952500" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7391,7 +7361,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -7413,7 +7383,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="15819120"/>
-              <a:ext cx="1257300" cy="187960"/>
+              <a:ext cx="1257300" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7460,7 +7430,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -7482,7 +7452,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="16002000"/>
-              <a:ext cx="977900" cy="187960"/>
+              <a:ext cx="977900" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7529,7 +7499,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -7551,7 +7521,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="16184880"/>
-              <a:ext cx="838200" cy="187960"/>
+              <a:ext cx="838200" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7805,7 +7775,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>92</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -7827,7 +7797,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="17099280"/>
-              <a:ext cx="1358900" cy="187960"/>
+              <a:ext cx="1358900" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7874,7 +7844,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -7896,7 +7866,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="17282160"/>
-              <a:ext cx="1257300" cy="200660"/>
+              <a:ext cx="1257300" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7943,7 +7913,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -7965,7 +7935,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="17465040"/>
-              <a:ext cx="1117600" cy="203200"/>
+              <a:ext cx="1117600" cy="223520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8012,7 +7982,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -8034,7 +8004,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="17663160"/>
-              <a:ext cx="1308100" cy="190500"/>
+              <a:ext cx="1308100" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8495,7 +8465,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -8517,7 +8487,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="19141440"/>
-              <a:ext cx="1028700" cy="228600"/>
+              <a:ext cx="1028700" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8564,7 +8534,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>104</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -8586,7 +8556,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="19324320"/>
-              <a:ext cx="800100" cy="226060"/>
+              <a:ext cx="800100" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8633,7 +8603,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>105</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -8655,7 +8625,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="431800" y="19507200"/>
-              <a:ext cx="1219200" cy="226060"/>
+              <a:ext cx="1219200" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8909,7 +8879,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -8931,7 +8901,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="10256520"/>
-              <a:ext cx="787400" cy="213360"/>
+              <a:ext cx="787400" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8978,7 +8948,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -9000,7 +8970,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="10439400"/>
-              <a:ext cx="889000" cy="215900"/>
+              <a:ext cx="889000" cy="223520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9116,7 +9086,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -9138,7 +9108,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="11003280"/>
-              <a:ext cx="800100" cy="226060"/>
+              <a:ext cx="800100" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9185,7 +9155,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -9207,7 +9177,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="11186160"/>
-              <a:ext cx="1003300" cy="213360"/>
+              <a:ext cx="1003300" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9254,7 +9224,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -9276,7 +9246,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="11369040"/>
-              <a:ext cx="927100" cy="213360"/>
+              <a:ext cx="927100" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9323,7 +9293,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -9345,7 +9315,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="11734800"/>
-              <a:ext cx="762000" cy="200660"/>
+              <a:ext cx="762000" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9737,7 +9707,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -9759,7 +9729,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="13045440"/>
-              <a:ext cx="952500" cy="200660"/>
+              <a:ext cx="952500" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9806,7 +9776,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -9828,7 +9798,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="13228320"/>
-              <a:ext cx="609600" cy="213360"/>
+              <a:ext cx="609600" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10427,7 +10397,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10449,7 +10419,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="17465040"/>
-              <a:ext cx="1092200" cy="215900"/>
+              <a:ext cx="1092200" cy="223520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11876,7 +11846,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -11898,7 +11868,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="12298680"/>
-              <a:ext cx="889000" cy="226060"/>
+              <a:ext cx="889000" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11945,7 +11915,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -11967,7 +11937,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="12481560"/>
-              <a:ext cx="927100" cy="238760"/>
+              <a:ext cx="927100" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12014,7 +11984,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -12036,7 +12006,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="12664440"/>
-              <a:ext cx="1092200" cy="228600"/>
+              <a:ext cx="1092200" cy="248920"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12083,7 +12053,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -12105,7 +12075,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="12862560"/>
-              <a:ext cx="749300" cy="241300"/>
+              <a:ext cx="749300" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12152,7 +12122,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -12174,7 +12144,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="13045440"/>
-              <a:ext cx="787400" cy="226060"/>
+              <a:ext cx="787400" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12428,7 +12398,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -12450,7 +12420,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="13975080"/>
-              <a:ext cx="1143000" cy="228600"/>
+              <a:ext cx="1143000" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12497,7 +12467,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -12519,7 +12489,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="14157960"/>
-              <a:ext cx="736600" cy="213360"/>
+              <a:ext cx="736600" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12566,7 +12536,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -12588,7 +12558,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="14340840"/>
-              <a:ext cx="698500" cy="213360"/>
+              <a:ext cx="698500" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12635,7 +12605,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -12657,7 +12627,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="14523720"/>
-              <a:ext cx="787400" cy="226060"/>
+              <a:ext cx="787400" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12842,7 +12812,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -12864,7 +12834,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6057900" y="15255240"/>
-              <a:ext cx="431800" cy="200660"/>
+              <a:ext cx="431800" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14774,7 +14744,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -14796,7 +14766,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="15255240"/>
-              <a:ext cx="774700" cy="213360"/>
+              <a:ext cx="774700" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14843,7 +14813,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -14865,7 +14835,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2717800" y="15438120"/>
-              <a:ext cx="635000" cy="228600"/>
+              <a:ext cx="635000" cy="236220"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16775,7 +16745,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
@@ -16797,7 +16767,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8636000" y="14340840"/>
-              <a:ext cx="2286000" cy="213360"/>
+              <a:ext cx="2286000" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16844,7 +16814,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -16866,7 +16836,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8636000" y="14523720"/>
-              <a:ext cx="2260600" cy="213360"/>
+              <a:ext cx="2260600" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17120,7 +17090,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>444500</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -17142,7 +17112,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8648700" y="15438120"/>
-              <a:ext cx="2209800" cy="228600"/>
+              <a:ext cx="2209800" cy="236220"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17258,7 +17228,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>444500</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -17280,7 +17250,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8648700" y="15819120"/>
-              <a:ext cx="1892300" cy="226060"/>
+              <a:ext cx="1892300" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17327,7 +17297,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>444500</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
@@ -17349,7 +17319,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8648700" y="16002000"/>
-              <a:ext cx="2336800" cy="226060"/>
+              <a:ext cx="2336800" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17396,7 +17366,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>444500</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -17418,7 +17388,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8648700" y="16184880"/>
-              <a:ext cx="2120900" cy="213360"/>
+              <a:ext cx="2120900" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17465,7 +17435,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>444500</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
@@ -17487,7 +17457,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8648700" y="16367760"/>
-              <a:ext cx="2654300" cy="226060"/>
+              <a:ext cx="2654300" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17534,7 +17504,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>444500</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
@@ -17556,7 +17526,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8648700" y="16550640"/>
-              <a:ext cx="2273300" cy="213360"/>
+              <a:ext cx="2273300" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17603,7 +17573,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>444500</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
@@ -17625,7 +17595,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8648700" y="16733520"/>
-              <a:ext cx="2654300" cy="213360"/>
+              <a:ext cx="2654300" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18500,7 +18470,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>114</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -18522,7 +18492,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="723900" y="21168360"/>
-              <a:ext cx="863600" cy="200660"/>
+              <a:ext cx="863600" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18983,7 +18953,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1206500</xdr:colOff>
           <xdr:row>123</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -19005,7 +18975,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="1206500" y="22814280"/>
-              <a:ext cx="1333500" cy="187960"/>
+              <a:ext cx="1333500" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19535,7 +19505,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>774700</xdr:colOff>
           <xdr:row>116</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -19557,7 +19527,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6464300" y="21534120"/>
-              <a:ext cx="1143000" cy="213360"/>
+              <a:ext cx="1143000" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19604,7 +19574,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>774700</xdr:colOff>
           <xdr:row>117</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -19626,7 +19596,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6464300" y="21717000"/>
-              <a:ext cx="1041400" cy="213360"/>
+              <a:ext cx="1041400" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19673,7 +19643,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>119</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -19695,7 +19665,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="22082760"/>
-              <a:ext cx="1231900" cy="200660"/>
+              <a:ext cx="1231900" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19742,7 +19712,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -19764,7 +19734,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="22265640"/>
-              <a:ext cx="1485900" cy="226060"/>
+              <a:ext cx="1485900" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19811,7 +19781,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>121</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -19833,7 +19803,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="22448520"/>
-              <a:ext cx="1257300" cy="226060"/>
+              <a:ext cx="1257300" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19880,7 +19850,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>122</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -19902,7 +19872,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="22631400"/>
-              <a:ext cx="1422400" cy="200660"/>
+              <a:ext cx="1422400" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19949,7 +19919,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>123</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -19971,7 +19941,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="22814280"/>
-              <a:ext cx="1447800" cy="213360"/>
+              <a:ext cx="1447800" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20018,7 +19988,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>124</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -20040,7 +20010,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="22997160"/>
-              <a:ext cx="1714500" cy="226060"/>
+              <a:ext cx="1714500" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20087,7 +20057,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>125</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20109,7 +20079,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="23180040"/>
-              <a:ext cx="1308100" cy="226060"/>
+              <a:ext cx="1308100" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20156,7 +20126,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>126</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20178,7 +20148,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="23362920"/>
-              <a:ext cx="1371600" cy="226060"/>
+              <a:ext cx="1371600" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20225,7 +20195,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>127</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20247,7 +20217,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="23545800"/>
-              <a:ext cx="1244600" cy="213360"/>
+              <a:ext cx="1244600" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20294,7 +20264,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>128</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20316,7 +20286,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="23728680"/>
-              <a:ext cx="1270000" cy="200660"/>
+              <a:ext cx="1270000" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20363,7 +20333,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>129</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20385,7 +20355,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="23911560"/>
-              <a:ext cx="1041400" cy="226060"/>
+              <a:ext cx="1041400" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20432,7 +20402,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>130</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20454,7 +20424,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="24094440"/>
-              <a:ext cx="1130300" cy="226060"/>
+              <a:ext cx="1130300" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20501,7 +20471,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>131</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20523,7 +20493,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="24277320"/>
-              <a:ext cx="1422400" cy="226060"/>
+              <a:ext cx="1422400" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20570,7 +20540,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>132</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20592,7 +20562,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="24460200"/>
-              <a:ext cx="1270000" cy="226060"/>
+              <a:ext cx="1270000" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20639,7 +20609,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>133</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20661,7 +20631,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="24643080"/>
-              <a:ext cx="914400" cy="226060"/>
+              <a:ext cx="914400" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20708,7 +20678,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20730,7 +20700,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="25008840"/>
-              <a:ext cx="850900" cy="200660"/>
+              <a:ext cx="850900" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20915,7 +20885,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>774700</xdr:colOff>
           <xdr:row>139</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -20937,7 +20907,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6464300" y="25740360"/>
-              <a:ext cx="1600200" cy="238760"/>
+              <a:ext cx="1600200" cy="246380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21260,7 +21230,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>154</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -21282,7 +21252,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="647700" y="28483560"/>
-              <a:ext cx="1384300" cy="226060"/>
+              <a:ext cx="1384300" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21536,7 +21506,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>520700</xdr:colOff>
           <xdr:row>181</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -21558,7 +21528,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="520700" y="33428940"/>
-              <a:ext cx="1612900" cy="200660"/>
+              <a:ext cx="1612900" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21881,7 +21851,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>520700</xdr:colOff>
           <xdr:row>188</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -21903,7 +21873,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="520700" y="34709100"/>
-              <a:ext cx="1219200" cy="213360"/>
+              <a:ext cx="1219200" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21950,7 +21920,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>520700</xdr:colOff>
           <xdr:row>189</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -21972,7 +21942,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="520700" y="34891980"/>
-              <a:ext cx="914400" cy="213360"/>
+              <a:ext cx="914400" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22019,7 +21989,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>520700</xdr:colOff>
           <xdr:row>190</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -22041,7 +22011,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="520700" y="35074860"/>
-              <a:ext cx="1346200" cy="200660"/>
+              <a:ext cx="1346200" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22088,7 +22058,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>520700</xdr:colOff>
           <xdr:row>192</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -22110,7 +22080,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="520700" y="35440620"/>
-              <a:ext cx="1016000" cy="200660"/>
+              <a:ext cx="1016000" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22640,7 +22610,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>406400</xdr:colOff>
           <xdr:row>189</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -22662,7 +22632,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2692400" y="34891980"/>
-              <a:ext cx="3276600" cy="302260"/>
+              <a:ext cx="3276600" cy="309880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -23054,7 +23024,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>406400</xdr:colOff>
           <xdr:row>195</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -23076,7 +23046,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2692400" y="35989260"/>
-              <a:ext cx="2514600" cy="213360"/>
+              <a:ext cx="2514600" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -23123,7 +23093,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>406400</xdr:colOff>
           <xdr:row>196</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -23145,7 +23115,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2692400" y="36172140"/>
-              <a:ext cx="2603500" cy="213360"/>
+              <a:ext cx="2603500" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -24986,7 +24956,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>863600</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -25008,7 +24978,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="863600" y="6217920"/>
-              <a:ext cx="723900" cy="213360"/>
+              <a:ext cx="723900" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25055,7 +25025,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>863600</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -25077,7 +25047,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="863600" y="6400800"/>
-              <a:ext cx="762000" cy="213360"/>
+              <a:ext cx="762000" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25124,7 +25094,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>863600</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -25146,7 +25116,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="863600" y="6583680"/>
-              <a:ext cx="1143000" cy="213360"/>
+              <a:ext cx="1143000" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25193,7 +25163,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>863600</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -25215,7 +25185,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="863600" y="6766560"/>
-              <a:ext cx="1231900" cy="226060"/>
+              <a:ext cx="1231900" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25262,7 +25232,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>863600</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -25284,7 +25254,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="863600" y="6949440"/>
-              <a:ext cx="609600" cy="213360"/>
+              <a:ext cx="609600" cy="233680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25331,7 +25301,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>520700</xdr:colOff>
           <xdr:row>191</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -25353,7 +25323,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="520700" y="35257740"/>
-              <a:ext cx="927100" cy="213360"/>
+              <a:ext cx="927100" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25400,7 +25370,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>330200</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -25422,7 +25392,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="330200" y="7680960"/>
-              <a:ext cx="647700" cy="175260"/>
+              <a:ext cx="647700" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25469,7 +25439,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
@@ -25491,7 +25461,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="342900" y="8046720"/>
-              <a:ext cx="800100" cy="175260"/>
+              <a:ext cx="800100" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25607,7 +25577,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
           <xdr:row>136</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -25629,7 +25599,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2311400" y="25191720"/>
-              <a:ext cx="990600" cy="162560"/>
+              <a:ext cx="990600" cy="182880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25676,7 +25646,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
           <xdr:row>137</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -25698,7 +25668,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2311400" y="25374600"/>
-              <a:ext cx="1397000" cy="187960"/>
+              <a:ext cx="1397000" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25745,7 +25715,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
           <xdr:row>138</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -25767,7 +25737,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2311400" y="25557480"/>
-              <a:ext cx="1270000" cy="200660"/>
+              <a:ext cx="1270000" cy="208280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26366,7 +26336,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>330200</xdr:colOff>
           <xdr:row>166</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -26388,7 +26358,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="330200" y="30678120"/>
-              <a:ext cx="2108200" cy="175260"/>
+              <a:ext cx="2108200" cy="195580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26476,7 +26446,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>134</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -26498,7 +26468,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6489700" y="24825960"/>
-              <a:ext cx="850900" cy="213360"/>
+              <a:ext cx="850900" cy="220980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26833,7 +26803,7 @@
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -26870,7 +26840,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="30">
-        <v>20181212</v>
+        <v>20112212</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
@@ -26974,7 +26944,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="44">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
@@ -26987,7 +26957,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="46">
-        <v>50.2</v>
+        <v>60.2</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="36"/>
@@ -31535,7 +31505,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -31557,7 +31527,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -31843,7 +31813,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -31865,7 +31835,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -31887,7 +31857,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -31975,7 +31945,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>84</xdr:row>
-                    <xdr:rowOff>215900</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -31997,7 +31967,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32019,7 +31989,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32041,7 +32011,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32129,7 +32099,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>92</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32151,7 +32121,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>93</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32173,7 +32143,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>94</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32195,7 +32165,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>95</xdr:row>
-                    <xdr:rowOff>215900</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32349,7 +32319,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32371,7 +32341,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32393,7 +32363,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>105</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -32481,7 +32451,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -32503,7 +32473,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -32547,7 +32517,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -32569,7 +32539,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -32591,7 +32561,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -32613,7 +32583,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -32745,7 +32715,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -32767,7 +32737,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -32965,7 +32935,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>94</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -33427,7 +33397,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -33449,7 +33419,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -33471,7 +33441,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -33493,7 +33463,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -33515,7 +33485,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -33603,7 +33573,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -33625,7 +33595,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -33647,7 +33617,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -33669,7 +33639,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -33735,7 +33705,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -34351,7 +34321,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -34373,7 +34343,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -34989,7 +34959,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
@@ -35011,7 +34981,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>431800</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -35099,7 +35069,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>444500</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -35143,7 +35113,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>444500</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -35165,7 +35135,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>444500</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
@@ -35187,7 +35157,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>444500</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -35209,7 +35179,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>444500</xdr:colOff>
                     <xdr:row>88</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
@@ -35231,7 +35201,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>444500</xdr:colOff>
                     <xdr:row>89</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
@@ -35253,7 +35223,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>444500</xdr:colOff>
                     <xdr:row>90</xdr:row>
-                    <xdr:rowOff>215900</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
@@ -35539,7 +35509,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>723900</xdr:colOff>
                     <xdr:row>114</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -35693,7 +35663,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1206500</xdr:colOff>
                     <xdr:row>123</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -35869,7 +35839,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>774700</xdr:colOff>
                     <xdr:row>116</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -35891,7 +35861,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>774700</xdr:colOff>
                     <xdr:row>117</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -35913,7 +35883,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>119</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -35935,7 +35905,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -35957,7 +35927,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>121</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -35979,7 +35949,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>122</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36001,7 +35971,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>123</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36023,7 +35993,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>124</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -36045,7 +36015,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>125</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36067,7 +36037,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>126</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36089,7 +36059,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>127</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36111,7 +36081,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>128</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36133,7 +36103,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>129</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36155,7 +36125,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>130</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36177,7 +36147,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>131</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36199,7 +36169,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>132</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36221,7 +36191,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>133</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36243,7 +36213,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>135</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36309,7 +36279,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>774700</xdr:colOff>
                     <xdr:row>139</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36419,7 +36389,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>154</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -36507,7 +36477,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>520700</xdr:colOff>
                     <xdr:row>181</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -36617,7 +36587,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>520700</xdr:colOff>
                     <xdr:row>188</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -36639,7 +36609,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>520700</xdr:colOff>
                     <xdr:row>189</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -36661,7 +36631,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>520700</xdr:colOff>
                     <xdr:row>190</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -36683,7 +36653,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>520700</xdr:colOff>
                     <xdr:row>192</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -36859,7 +36829,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>189</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -36991,7 +36961,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>195</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -37013,7 +36983,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>196</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -37607,7 +37577,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -37629,7 +37599,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -37651,7 +37621,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -37673,7 +37643,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -37695,7 +37665,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -37717,7 +37687,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>520700</xdr:colOff>
                     <xdr:row>191</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -37739,7 +37709,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>330200</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>215900</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -37761,7 +37731,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
@@ -37805,7 +37775,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>136</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -37827,7 +37797,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>137</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -37849,7 +37819,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>138</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -38047,7 +38017,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>330200</xdr:colOff>
                     <xdr:row>166</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -38091,7 +38061,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>134</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -41047,22 +41017,22 @@
         <v>804</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>805</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -41100,27 +41070,27 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>818</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -41690,232 +41660,232 @@
         <v>890</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>32</v>
+        <v>891</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="1" t="s">
-        <v>935</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="2:2">
